--- a/妇科电子件清单.xlsx
+++ b/妇科电子件清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>图片</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>直流电源</t>
+  </si>
+  <si>
+    <t>音箱</t>
   </si>
   <si>
     <t>红色待补充和确定</t>
@@ -133,6 +136,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -141,6 +165,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -150,50 +181,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,24 +203,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +225,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +249,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -261,23 +279,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,25 +301,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,157 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,8 +516,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,30 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,21 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1617,7 +1614,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1633,7 +1632,7 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
